--- a/新增产品.xlsx
+++ b/新增产品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,357 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Y订制产品</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>英语本</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>BM202Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Y订制产品</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>多格算术本</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>950</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>HB105C彩</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Y订制产品</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>数学本</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>400</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>HB203C彩</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>H牛卡缝线本</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>32K60型牛卡缝线语文簿（方格）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>320</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>JFC3260N</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>H牛卡缝线本</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>32K60型牛卡缝线纠错本</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>320</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>JFJC3260N</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>H牛卡缝线本</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>32K60型牛卡缝线日记本</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>320</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>JFRJ3260N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>H牛卡缝线本</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>32K60型牛卡缝线生字簿</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>320</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>JFSZ3260N</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>H牛卡缝线本</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>32K60型牛卡缝线英语本</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>320</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>JFY3260N</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>K新锐订制</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16K60型牛卡方格语文本</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>200</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>RFC1660N（方格）原木</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>K新锐订制</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16K60型牛卡缝线练习本</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>200</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>RFL1660N原木定制</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>J新锐胶套</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16K100型胶套本</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>RJL-16100-H02</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>J新锐胶套</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16K150型胶套本</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>RJL-16150-H01</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Y订制产品</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>32K生字本</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>900</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>XJ101</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
